--- a/biology/Biologie cellulaire et moléculaire/Souche_pure/Souche_pure.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Souche_pure/Souche_pure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En génétique, une souche pure est la situation idéale d'une population dont tous les individus possèdent le même génotype dont tous les gènes sont homozygotes.
 En microbiologie, une souche pure est une culture d'un unique micro-organisme.
